--- a/xzsBot/data/birthday.xlsx
+++ b/xzsBot/data/birthday.xlsx
@@ -6,15 +6,14 @@
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-2021" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2019-2020" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr concurrentCalc="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>date</t>
   </si>
@@ -25,6 +24,9 @@
     <t>李佳纯</t>
   </si>
   <si>
+    <t>王资越</t>
+  </si>
+  <si>
     <t>1.27</t>
   </si>
   <si>
@@ -35,6 +37,12 @@
   </si>
   <si>
     <t>陈至越</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>田政麟</t>
   </si>
   <si>
     <t>2.10</t>
@@ -157,12 +165,24 @@
     <t>戴郑钖</t>
   </si>
   <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>郭子钰</t>
+  </si>
+  <si>
     <t>6.10</t>
   </si>
   <si>
     <t>叶璨铭</t>
   </si>
   <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>林沁怡</t>
+  </si>
+  <si>
     <t>贺骏</t>
   </si>
   <si>
@@ -235,6 +255,12 @@
     <t>林瀚兰</t>
   </si>
   <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>刘浩贤</t>
+  </si>
+  <si>
     <t>10.04</t>
   </si>
   <si>
@@ -250,12 +276,24 @@
     <t>杨子德</t>
   </si>
   <si>
+    <t>10.28</t>
+  </si>
+  <si>
+    <t>李思琪</t>
+  </si>
+  <si>
     <t>10.29</t>
   </si>
   <si>
     <t>刘雅璇</t>
   </si>
   <si>
+    <t>10.31</t>
+  </si>
+  <si>
+    <t>李政林</t>
+  </si>
+  <si>
     <t>11.05</t>
   </si>
   <si>
@@ -274,6 +312,12 @@
     <t>罗千越</t>
   </si>
   <si>
+    <t>11.18</t>
+  </si>
+  <si>
+    <t>汪名翰</t>
+  </si>
+  <si>
     <t>11.20</t>
   </si>
   <si>
@@ -286,104 +330,41 @@
     <t>李小冉</t>
   </si>
   <si>
+    <t>11.27</t>
+  </si>
+  <si>
+    <t>苏宇鹏</t>
+  </si>
+  <si>
     <t>12.02</t>
   </si>
   <si>
     <t>何忠荣</t>
   </si>
   <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>刘缤鸿</t>
+  </si>
+  <si>
+    <t>12.12</t>
+  </si>
+  <si>
+    <t>杨嘉琪</t>
+  </si>
+  <si>
     <t>吴笑丰</t>
   </si>
   <si>
     <t>欧阳逸辰</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>林悦滢</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>张欣怡</t>
-  </si>
-  <si>
-    <t>张恪远</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>何心怡</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>陈桢杰</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>尹沫文</t>
-  </si>
-  <si>
-    <t>李沛峰</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>龚辛睿</t>
-  </si>
-  <si>
-    <t>智璞</t>
-  </si>
-  <si>
-    <t>王纤纤</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>易岚菁</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>雷鸿楸</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>白弈文</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>沈清</t>
-  </si>
-  <si>
-    <t>另外：超越只过农历2.14的生日……</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -391,20 +372,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF0070C0"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="宋体"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -426,41 +395,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -756,9 +706,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="New Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -965,763 +915,516 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" zoomScale="192">
-      <selection activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView topLeftCell="A21" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9"/>
-    <col customWidth="1" min="2" max="2" style="2" width="11.33203125"/>
+    <col min="1" max="1" style="1" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="14.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.25">
       <c r="A2" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="14.25">
+      <c r="A3" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="31.5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="7" ht="31.5">
+      <c r="A7" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="29.25" customHeight="1">
-      <c r="A7" s="1">
-        <v>2.1400000000000001</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="14.25">
+      <c r="A9" s="1">
+        <v>2.1400000000000001</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+    <row r="19" ht="14.25">
+      <c r="A19" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" ht="28.5">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" ht="31.5">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="7" t="s">
+    </row>
+    <row r="22" ht="28.5">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="23" ht="28.5">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>6.1799999999999997</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="14.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="14.25">
       <c r="A26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
+    <row r="27" ht="14.25">
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="1">
+        <v>6.1799999999999997</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31" s="1">
         <v>6.2699999999999996</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32" s="1">
         <v>7.1100000000000003</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33" s="1">
         <v>7.1900000000000004</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>7.3099999999999996</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="14.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="14.25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+    <row r="36" ht="14.25">
+      <c r="A36" s="1">
+        <v>7.3099999999999996</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="14.25">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="14.25">
       <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>10.16</v>
-      </c>
-      <c r="B40" s="2" t="s">
+    <row r="40" ht="14.25">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="14.25">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="14.25">
       <c r="A43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="14.25">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+    <row r="45" ht="14.25">
+      <c r="A45" s="1">
+        <v>10.16</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1">
+      <c r="B47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="1">
         <v>11.23</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1">
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="1">
         <v>11.25</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
+      <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="1">
         <v>12.210000000000001</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1">
+      <c r="B61" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="1">
         <v>12.31</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>87</v>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="1200" verticalDpi="1200" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0" zoomScale="100">
-      <selection activeCell="E19" activeCellId="0" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1">
-        <v>2.1400000000000001</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.7999999999999998</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5.2699999999999996</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1">
-        <v>6.1100000000000003</v>
-      </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1">
-        <v>6.1600000000000001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1">
-        <v>6.1799999999999997</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1">
-        <v>6.2699999999999996</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7.2000000000000002</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1">
-        <v>7.9000000000000004</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>7.1100000000000003</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1">
-        <v>7.1900000000000004</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1">
-        <v>7.2300000000000004</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
-        <v>7.3099999999999996</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="1">
-        <v>9.1899999999999995</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10.140000000000001</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1">
-        <v>10.16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="1">
-        <v>11.109999999999999</v>
-      </c>
-      <c r="C24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1">
-        <v>11.800000000000001</v>
-      </c>
-      <c r="C25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1">
-        <v>11.23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1">
-        <v>11.25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1">
-        <v>12.15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1">
-        <v>12.210000000000001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>12.31</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-  </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>